--- a/CodeBookPublic.xlsx
+++ b/CodeBookPublic.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/efuller/Dropbox/Working/projects/MPC/data/PublicDataSet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640FFD29-BAC6-B840-A814-0E9260B05AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915F1D2-A916-514A-AEDD-BD3E5250E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="1900" windowWidth="24440" windowHeight="11900" xr2:uid="{9A16DBD4-8D79-3146-A404-E76C6B6D4701}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Number</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>Average of SAT/ACT/HSGPA/MPS scaled to 0 to 100</t>
-  </si>
-  <si>
-    <t>SuccessVar</t>
-  </si>
-  <si>
-    <t>Instructor Student Success Variance from Dept Avg Success</t>
   </si>
   <si>
     <t>studyID</t>
@@ -468,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827BFA19-C5A4-A94A-93D9-C582D47FAD5C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -508,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -530,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -541,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -552,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -563,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -574,43 +568,32 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
